--- a/src/main/resources/test2.xlsx
+++ b/src/main/resources/test2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>RuleSet</t>
   </si>
@@ -76,10 +76,13 @@
     <t>price</t>
   </si>
   <si>
+    <t>amex</t>
+  </si>
+  <si>
+    <t>REWARD_AMOUNT</t>
+  </si>
+  <si>
     <t>petco</t>
-  </si>
-  <si>
-    <t>REWARD_AMOUNT</t>
   </si>
   <si>
     <t>walmart</t>
@@ -139,6 +142,7 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -569,13 +573,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.57"/>
-    <col customWidth="1" min="2" max="2" width="41.14"/>
-    <col customWidth="1" min="3" max="3" width="28.43"/>
-    <col customWidth="1" min="4" max="5" width="35.14"/>
-    <col customWidth="1" min="6" max="6" width="34.86"/>
+    <col customWidth="1" min="1" max="1" width="20.63"/>
+    <col customWidth="1" min="2" max="2" width="36.0"/>
+    <col customWidth="1" min="3" max="3" width="24.88"/>
+    <col customWidth="1" min="4" max="5" width="30.75"/>
+    <col customWidth="1" min="6" max="6" width="30.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -725,7 +729,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="22">
-        <v>27.0</v>
+        <v>35.0</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -736,112 +740,127 @@
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>24</v>
+      <c r="F12" s="22">
+        <v>27.0</v>
       </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="22">
-        <v>95.0</v>
+      <c r="F13" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>31</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="22">
-        <v>75.0</v>
+        <v>95.0</v>
       </c>
       <c r="G14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="8"/>
       <c r="E15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>34</v>
+      <c r="F15" s="22">
+        <v>75.0</v>
       </c>
       <c r="G15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="22">
-        <v>789.0</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="E17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="22">
+        <v>789.0</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="22">
         <v>150.0</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/src/main/resources/test2.xlsx
+++ b/src/main/resources/test2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>RuleSet</t>
   </si>
@@ -728,8 +728,8 @@
       <c r="E11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="22">
-        <v>35.0</v>
+      <c r="F11" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="8"/>
     </row>

--- a/src/main/resources/test2.xlsx
+++ b/src/main/resources/test2.xlsx
@@ -278,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -347,16 +347,19 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -637,7 +640,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -648,7 +651,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -669,7 +672,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
@@ -680,7 +683,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
@@ -815,7 +818,7 @@
       <c r="C16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="24" t="s">
         <v>22</v>
       </c>
@@ -831,10 +834,10 @@
       <c r="B17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="27" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="24" t="s">
@@ -852,8 +855,8 @@
       <c r="B18" s="22">
         <v>789.0</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="24" t="s">
         <v>22</v>
       </c>

--- a/src/main/resources/test2.xlsx
+++ b/src/main/resources/test2.xlsx
@@ -747,7 +747,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="22">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="G12" s="8"/>
     </row>
